--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Itga6.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Mdk-Itga6.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H2">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I2">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J2">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N2">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O2">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P2">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q2">
-        <v>481.3045897170078</v>
+        <v>495.7660134006445</v>
       </c>
       <c r="R2">
-        <v>4331.74130745307</v>
+        <v>4461.894120605801</v>
       </c>
       <c r="S2">
-        <v>0.02344359260837134</v>
+        <v>0.03505556745153963</v>
       </c>
       <c r="T2">
-        <v>0.02344359260837133</v>
+        <v>0.03505556745153963</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H3">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I3">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J3">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>2.786578</v>
       </c>
       <c r="O3">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P3">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q3">
-        <v>2.137915276962222</v>
+        <v>2.653469361335556</v>
       </c>
       <c r="R3">
-        <v>19.24123749266</v>
+        <v>23.88122425202</v>
       </c>
       <c r="S3">
-        <v>0.0001041345041271785</v>
+        <v>0.0001876265650782334</v>
       </c>
       <c r="T3">
-        <v>0.0001041345041271785</v>
+        <v>0.0001876265650782334</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H4">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I4">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J4">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N4">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O4">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P4">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q4">
-        <v>285.6181519135511</v>
+        <v>156.0976665592778</v>
       </c>
       <c r="R4">
-        <v>2570.56336722196</v>
+        <v>1404.8789990335</v>
       </c>
       <c r="S4">
-        <v>0.01391201276296617</v>
+        <v>0.01103765109181563</v>
       </c>
       <c r="T4">
-        <v>0.01391201276296617</v>
+        <v>0.01103765109181563</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G5">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H5">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I5">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J5">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N5">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O5">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P5">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q5">
-        <v>2.291104338068889</v>
+        <v>3.053843017026667</v>
       </c>
       <c r="R5">
-        <v>20.61993904262</v>
+        <v>27.48458715324001</v>
       </c>
       <c r="S5">
-        <v>0.0001115961033252148</v>
+        <v>0.0002159369480280966</v>
       </c>
       <c r="T5">
-        <v>0.0001115961033252148</v>
+        <v>0.0002159369480280966</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G6">
-        <v>2.301656666666667</v>
+        <v>2.856696666666667</v>
       </c>
       <c r="H6">
-        <v>6.90497</v>
+        <v>8.57009</v>
       </c>
       <c r="I6">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="J6">
-        <v>0.04570678505973542</v>
+        <v>0.05747862151401942</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N6">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O6">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P6">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q6">
-        <v>167.0234186150244</v>
+        <v>155.30836222251</v>
       </c>
       <c r="R6">
-        <v>1503.21076753522</v>
+        <v>1397.77526000259</v>
       </c>
       <c r="S6">
-        <v>0.008135449080945534</v>
+        <v>0.01098183945755784</v>
       </c>
       <c r="T6">
-        <v>0.008135449080945533</v>
+        <v>0.01098183945755784</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>114.933136</v>
       </c>
       <c r="I7">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J7">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N7">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O7">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P7">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q7">
-        <v>8011.308646868712</v>
+        <v>6648.698279989369</v>
       </c>
       <c r="R7">
-        <v>72101.77782181841</v>
+        <v>59838.28451990432</v>
       </c>
       <c r="S7">
-        <v>0.3902182945887582</v>
+        <v>0.470128820288349</v>
       </c>
       <c r="T7">
-        <v>0.3902182945887581</v>
+        <v>0.470128820288349</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>114.933136</v>
       </c>
       <c r="I8">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J8">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>2.786578</v>
       </c>
       <c r="O8">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P8">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q8">
         <v>35.58557202762311</v>
@@ -948,10 +948,10 @@
         <v>320.270148248608</v>
       </c>
       <c r="S8">
-        <v>0.001733317469176777</v>
+        <v>0.002516252398907065</v>
       </c>
       <c r="T8">
-        <v>0.001733317469176777</v>
+        <v>0.002516252398907065</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>114.933136</v>
       </c>
       <c r="I9">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J9">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N9">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O9">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P9">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q9">
-        <v>4754.110430305827</v>
+        <v>2093.419595353156</v>
       </c>
       <c r="R9">
-        <v>42786.99387275245</v>
+        <v>18840.7763581784</v>
       </c>
       <c r="S9">
-        <v>0.2315652718143202</v>
+        <v>0.1480254996220803</v>
       </c>
       <c r="T9">
-        <v>0.2315652718143202</v>
+        <v>0.1480254996220803</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>114.933136</v>
       </c>
       <c r="I10">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J10">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N10">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O10">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P10">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q10">
-        <v>38.13540196082845</v>
+        <v>40.95496719387734</v>
       </c>
       <c r="R10">
-        <v>343.2186176474561</v>
+        <v>368.5947047448961</v>
       </c>
       <c r="S10">
-        <v>0.00185751569095115</v>
+        <v>0.002895921818223397</v>
       </c>
       <c r="T10">
-        <v>0.00185751569095115</v>
+        <v>0.002895921818223397</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>114.933136</v>
       </c>
       <c r="I11">
-        <v>0.7607888438897402</v>
+        <v>0.7708435061432634</v>
       </c>
       <c r="J11">
-        <v>0.7607888438897401</v>
+        <v>0.7708435061432632</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N11">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O11">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P11">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q11">
-        <v>2780.102634314926</v>
+        <v>2082.834266297904</v>
       </c>
       <c r="R11">
-        <v>25020.92370883434</v>
+        <v>18745.50839668114</v>
       </c>
       <c r="S11">
-        <v>0.1354144443265341</v>
+        <v>0.1472770120157037</v>
       </c>
       <c r="T11">
-        <v>0.135414444326534</v>
+        <v>0.1472770120157037</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1154,22 +1154,22 @@
         <v>20</v>
       </c>
       <c r="E12">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G12">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H12">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I12">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J12">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N12">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O12">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P12">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q12">
-        <v>825.9483336468637</v>
+        <v>361.2530905589866</v>
       </c>
       <c r="R12">
-        <v>7433.535002821773</v>
+        <v>3251.27781503088</v>
       </c>
       <c r="S12">
-        <v>0.04023064949570748</v>
+        <v>0.02554417152620258</v>
       </c>
       <c r="T12">
-        <v>0.04023064949570747</v>
+        <v>0.02554417152620258</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1216,22 +1216,22 @@
         <v>21</v>
       </c>
       <c r="E13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F13">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G13">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H13">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I13">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J13">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>2.786578</v>
       </c>
       <c r="O13">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P13">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q13">
-        <v>3.668794352290222</v>
+        <v>1.933521019141333</v>
       </c>
       <c r="R13">
-        <v>33.019149170612</v>
+        <v>17.401689172272</v>
       </c>
       <c r="S13">
-        <v>0.0001787012257862668</v>
+        <v>0.0001367190865717995</v>
       </c>
       <c r="T13">
-        <v>0.0001787012257862668</v>
+        <v>0.0001367190865717995</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1278,22 +1278,22 @@
         <v>22</v>
       </c>
       <c r="E14">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F14">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G14">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H14">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I14">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J14">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N14">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O14">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P14">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q14">
-        <v>490.138348298319</v>
+        <v>113.7447161550667</v>
       </c>
       <c r="R14">
-        <v>4411.245134684871</v>
+        <v>1023.7024453956</v>
       </c>
       <c r="S14">
-        <v>0.02387387115091075</v>
+        <v>0.008042878014326153</v>
       </c>
       <c r="T14">
-        <v>0.02387387115091075</v>
+        <v>0.008042878014326153</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1340,22 +1340,22 @@
         <v>23</v>
       </c>
       <c r="E15">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F15">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G15">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H15">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I15">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J15">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N15">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O15">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P15">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q15">
-        <v>3.931676220564889</v>
+        <v>2.225263931296</v>
       </c>
       <c r="R15">
-        <v>35.385085985084</v>
+        <v>20.027375381664</v>
       </c>
       <c r="S15">
-        <v>0.0001915057897892456</v>
+        <v>0.000157348200022708</v>
       </c>
       <c r="T15">
-        <v>0.0001915057897892455</v>
+        <v>0.0001573482000227081</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1402,22 +1402,22 @@
         <v>24</v>
       </c>
       <c r="E16">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F16">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="G16">
-        <v>3.949784666666666</v>
+        <v>2.081608</v>
       </c>
       <c r="H16">
-        <v>11.849354</v>
+        <v>6.244823999999999</v>
       </c>
       <c r="I16">
-        <v>0.07843565958645962</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="J16">
-        <v>0.07843565958645961</v>
+        <v>0.04188332620983732</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N16">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O16">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P16">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q16">
-        <v>286.6224782236004</v>
+        <v>113.169568558536</v>
       </c>
       <c r="R16">
-        <v>2579.602304012404</v>
+        <v>1018.526117026824</v>
       </c>
       <c r="S16">
-        <v>0.01396093192426589</v>
+        <v>0.008002209382714089</v>
       </c>
       <c r="T16">
-        <v>0.01396093192426589</v>
+        <v>0.008002209382714089</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H17">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I17">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J17">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N17">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O17">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P17">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q17">
-        <v>638.2184442318448</v>
+        <v>793.6605257289378</v>
       </c>
       <c r="R17">
-        <v>5743.965998086603</v>
+        <v>7142.94473156044</v>
       </c>
       <c r="S17">
-        <v>0.03108662065848406</v>
+        <v>0.05611965996311883</v>
       </c>
       <c r="T17">
-        <v>0.03108662065848405</v>
+        <v>0.05611965996311882</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H18">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I18">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J18">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>2.786578</v>
       </c>
       <c r="O18">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P18">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q18">
-        <v>2.834913672368222</v>
+        <v>4.247878699626223</v>
       </c>
       <c r="R18">
-        <v>25.514223051314</v>
+        <v>38.230908296636</v>
       </c>
       <c r="S18">
-        <v>0.0001380842041294043</v>
+        <v>0.0003003670970893381</v>
       </c>
       <c r="T18">
-        <v>0.0001380842041294043</v>
+        <v>0.000300367097089338</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H19">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I19">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J19">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N19">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O19">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P19">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q19">
-        <v>378.7347481265871</v>
+        <v>249.8932011428111</v>
       </c>
       <c r="R19">
-        <v>3408.612733139284</v>
+        <v>2249.0388102853</v>
       </c>
       <c r="S19">
-        <v>0.01844757629868927</v>
+        <v>0.0176699243827826</v>
       </c>
       <c r="T19">
-        <v>0.01844757629868927</v>
+        <v>0.0176699243827826</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H20">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I20">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J20">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N20">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O20">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P20">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q20">
-        <v>3.038045091310889</v>
+        <v>4.888827771314667</v>
       </c>
       <c r="R20">
-        <v>27.342405821798</v>
+        <v>43.999449941832</v>
       </c>
       <c r="S20">
-        <v>0.0001479784173436441</v>
+        <v>0.0003456885447243905</v>
       </c>
       <c r="T20">
-        <v>0.0001479784173436441</v>
+        <v>0.0003456885447243905</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>3.052037666666667</v>
+        <v>4.573220666666667</v>
       </c>
       <c r="H21">
-        <v>9.156113</v>
+        <v>13.719662</v>
       </c>
       <c r="I21">
-        <v>0.0606080097196149</v>
+        <v>0.09201621679565497</v>
       </c>
       <c r="J21">
-        <v>0.06060800971961489</v>
+        <v>0.09201621679565496</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N21">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O21">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P21">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q21">
-        <v>221.4760229929264</v>
+        <v>248.629621797018</v>
       </c>
       <c r="R21">
-        <v>1993.284206936338</v>
+        <v>2237.666596173162</v>
       </c>
       <c r="S21">
-        <v>0.01078775014096853</v>
+        <v>0.01758057680793982</v>
       </c>
       <c r="T21">
-        <v>0.01078775014096852</v>
+        <v>0.01758057680793982</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H22">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I22">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J22">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>209.1122436666667</v>
+        <v>173.5452066666667</v>
       </c>
       <c r="N22">
-        <v>627.336731</v>
+        <v>520.63562</v>
       </c>
       <c r="O22">
-        <v>0.5129127453994473</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="P22">
-        <v>0.5129127453994472</v>
+        <v>0.6098887991422922</v>
       </c>
       <c r="Q22">
-        <v>573.4856580823914</v>
+        <v>325.84657104006</v>
       </c>
       <c r="R22">
-        <v>5161.370922741523</v>
+        <v>2932.61913936054</v>
       </c>
       <c r="S22">
-        <v>0.02793358804812626</v>
+        <v>0.02304057991308218</v>
       </c>
       <c r="T22">
-        <v>0.02793358804812625</v>
+        <v>0.02304057991308218</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H23">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I23">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J23">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>2.786578</v>
       </c>
       <c r="O23">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="P23">
-        <v>0.00227831609663822</v>
+        <v>0.003264284357140855</v>
       </c>
       <c r="Q23">
-        <v>2.547375977141555</v>
+        <v>1.744016066814</v>
       </c>
       <c r="R23">
-        <v>22.926383794274</v>
+        <v>15.696144601326</v>
       </c>
       <c r="S23">
-        <v>0.0001240786934185934</v>
+        <v>0.000123319209494419</v>
       </c>
       <c r="T23">
-        <v>0.0001240786934185933</v>
+        <v>0.000123319209494419</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H24">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I24">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J24">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>124.0924226666667</v>
+        <v>54.64271666666667</v>
       </c>
       <c r="N24">
-        <v>372.277268</v>
+        <v>163.92815</v>
       </c>
       <c r="O24">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="P24">
-        <v>0.3043752201075658</v>
+        <v>0.192030546333187</v>
       </c>
       <c r="Q24">
-        <v>340.3206977658937</v>
+        <v>102.59656374345</v>
       </c>
       <c r="R24">
-        <v>3062.886279893044</v>
+        <v>923.3690736910502</v>
       </c>
       <c r="S24">
-        <v>0.01657648808067943</v>
+        <v>0.007254593222182385</v>
       </c>
       <c r="T24">
-        <v>0.01657648808067943</v>
+        <v>0.007254593222182384</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H25">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I25">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J25">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.9954153333333334</v>
+        <v>1.069012</v>
       </c>
       <c r="N25">
-        <v>2.986246</v>
+        <v>3.207036</v>
       </c>
       <c r="O25">
-        <v>0.002441565364515725</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="P25">
-        <v>0.002441565364515724</v>
+        <v>0.00375682196858928</v>
       </c>
       <c r="Q25">
-        <v>2.729904320724222</v>
+        <v>2.007165172068</v>
       </c>
       <c r="R25">
-        <v>24.569138886518</v>
+        <v>18.064486548612</v>
       </c>
       <c r="S25">
-        <v>0.0001329693631064699</v>
+        <v>0.0001419264575906878</v>
       </c>
       <c r="T25">
-        <v>0.0001329693631064699</v>
+        <v>0.0001419264575906878</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2.742477666666666</v>
+        <v>1.877589</v>
       </c>
       <c r="H26">
-        <v>8.227433</v>
+        <v>5.632767</v>
       </c>
       <c r="I26">
-        <v>0.05446070174444989</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="J26">
-        <v>0.05446070174444988</v>
+        <v>0.037778329337225</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>72.56660866666667</v>
+        <v>54.36641700000001</v>
       </c>
       <c r="N26">
-        <v>217.699826</v>
+        <v>163.099251</v>
       </c>
       <c r="O26">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="P26">
-        <v>0.1779921530318332</v>
+        <v>0.1910595481987908</v>
       </c>
       <c r="Q26">
-        <v>199.0123036140731</v>
+        <v>102.077786528613</v>
       </c>
       <c r="R26">
-        <v>1791.110732526658</v>
+        <v>918.7000787575171</v>
       </c>
       <c r="S26">
-        <v>0.00969357755911915</v>
+        <v>0.007217910534875332</v>
       </c>
       <c r="T26">
-        <v>0.009693577559119147</v>
+        <v>0.00721791053487533</v>
       </c>
     </row>
   </sheetData>
